--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_6_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_6_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005128419046077526</v>
+        <v>3.325564629708122e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005128419046077526</v>
+        <v>3.325564629708122e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>34.09435587219694</v>
+        <v>36.88085379122087</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[7.014927256824549, 61.173784487569336]</t>
+          <t>[20.36872753723, 53.39298004521174]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01475913499727377</v>
+        <v>4.781287169541848e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01475913499727377</v>
+        <v>4.781287169541848e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>2.018921405009658</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0880791372793484, 2.9497636727399668]</t>
+          <t>[1.0126054398958084, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.275610548806988e-05</v>
+        <v>1.936909117761232e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>7.275610548806988e-05</v>
+        <v>1.936909117761232e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>56.50768630183654</v>
+        <v>61.22241615376245</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.800879175474336, 71.21449342819874]</t>
+          <t>[50.573268746141224, 71.87156356138367]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.295506503941397e-10</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>8.295506503941397e-10</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>17.63885885885928</v>
+        <v>19.22930930930976</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.78848848848882</v>
+        <v>16.79979979980019</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.48922922922974</v>
+        <v>21.65881881881932</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002342005807683512</v>
+        <v>1.51346122695406e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002342005807683512</v>
+        <v>1.51346122695406e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>32.87602966285108</v>
+        <v>45.20441970854078</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[9.427462289018102, 56.32459703668406]</t>
+          <t>[22.403710615243455, 68.00512880183811]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.007045051715816486</v>
+        <v>0.0002383024260534938</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007045051715816486</v>
+        <v>0.0002383024260534938</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8993948938205021</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 1.5660792207084269]</t>
+          <t>[0.4465527095192696, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.009313599741941125</v>
+        <v>0.0004908064229998121</v>
       </c>
       <c r="S3" t="n">
-        <v>0.009313599741941125</v>
+        <v>0.0004908064229998121</v>
       </c>
       <c r="T3" t="n">
-        <v>59.19712898591373</v>
+        <v>60.13486599302988</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.801052503916125, 71.59320546791133]</t>
+          <t>[48.19213535403905, 72.0775966320207]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.73483449827927e-12</v>
+        <v>3.341771304121721e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73483449827927e-12</v>
+        <v>3.341771304121721e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>22.26970970971024</v>
+        <v>21.86558558558609</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.51201201201247</v>
+        <v>19.74622622622669</v>
       </c>
       <c r="Z3" t="n">
-        <v>25.02740740740801</v>
+        <v>23.9849449449455</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008398983169587426</v>
+        <v>4.081925162990885e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008398983169587426</v>
+        <v>4.081925162990885e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>33.83192516213859</v>
+        <v>46.00818609867494</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12.155084479164092, 55.50876584511309]</t>
+          <t>[24.884215565250685, 67.1321566320992]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.002953292477367864</v>
+        <v>6.860163279220899e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002953292477367864</v>
+        <v>6.860163279220899e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.735868549489501</v>
+        <v>0.5849211547224229</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.14465791998511435, 1.3270791789938876]</t>
+          <t>[0.11950002085726741, 1.0503422885875784]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01585846731922924</v>
+        <v>0.01492979866304922</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01585846731922924</v>
+        <v>0.01492979866304922</v>
       </c>
       <c r="T4" t="n">
-        <v>55.3400000096587</v>
+        <v>54.40979872784671</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.84489812006332, 66.83510189925408]</t>
+          <t>[43.370712456137795, 65.44888499955563]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.354028000832841e-12</v>
+        <v>6.534772722943671e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.354028000832841e-12</v>
+        <v>6.534772722943671e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>22.94612612612668</v>
+        <v>23.41633633633688</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.50062062062111</v>
+        <v>21.50374374374424</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.39163163163225</v>
+        <v>25.32892892892952</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.566541295744855e-07</v>
+        <v>0.02776208035334948</v>
       </c>
       <c r="I5" t="n">
-        <v>7.566541295744855e-07</v>
+        <v>0.02776208035334948</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.36802681976615</v>
+        <v>26.68082237112299</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[32.62849662545257, 72.10755701407973]</t>
+          <t>[4.760513507497663, 48.60113123474832]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.909951736684846e-06</v>
+        <v>0.01817273898572802</v>
       </c>
       <c r="O5" t="n">
-        <v>2.909951736684846e-06</v>
+        <v>0.01817273898572802</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2956053147521933</v>
+        <v>-0.06289474781961513</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.14465791998511435, 0.735868549489501]</t>
+          <t>[-1.2264475824825016, 1.1006580868432714]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1830280757415284</v>
+        <v>0.9137892698473666</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1830280757415284</v>
+        <v>0.9137892698473666</v>
       </c>
       <c r="T5" t="n">
-        <v>58.53227167315751</v>
+        <v>49.47285913775396</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.10727374405076, 69.95726960226426]</t>
+          <t>[36.22916920186075, 62.716549073647165]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.929567616798522e-13</v>
+        <v>1.714974384725565e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.929567616798522e-13</v>
+        <v>1.714974384725565e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>24.76724724724784</v>
+        <v>0.2584584584584633</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.94612612612667</v>
+        <v>-4.523023023023129</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.588368368369</v>
+        <v>5.039939939940056</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01084812387189049</v>
+        <v>0.0002097029021311814</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01084812387189049</v>
+        <v>0.0002097029021311814</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>27.78290561455614</v>
+        <v>34.64304249637465</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[3.3039738962846243, 52.261837332827646]</t>
+          <t>[15.159202190730113, 54.126882802019196]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02701796501414799</v>
+        <v>0.0008349725165663902</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02701796501414799</v>
+        <v>0.0008349725165663902</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5283158816847697</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.440289725069194, 0.3836579616996545]</t>
+          <t>[-0.9811580659860013, 0.3018947895341544]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2494409508634352</v>
+        <v>0.291980167510081</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2494409508634352</v>
+        <v>0.291980167510081</v>
       </c>
       <c r="T6" t="n">
-        <v>52.97766670129138</v>
+        <v>48.11191783498744</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.39129749678327, 65.5640359057995]</t>
+          <t>[37.34967002417239, 58.874165645802485]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.028155835087091e-11</v>
+        <v>1.251065917529104e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>7.028155835087091e-11</v>
+        <v>1.251065917529104e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>2.185345345345397</v>
+        <v>1.395675675675704</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.586976976977015</v>
+        <v>-1.240600600600632</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.957667667667808</v>
+        <v>4.031951951952042</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006475048885289825</v>
+        <v>4.673062797255767e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006475048885289825</v>
+        <v>4.673062797255767e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>29.72634541503977</v>
+        <v>53.52385171869542</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[4.681720228268944, 54.7709706018106]</t>
+          <t>[24.31140409872492, 82.73629933866592]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02106590919853524</v>
+        <v>0.0006023353738586756</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02106590919853524</v>
+        <v>0.0006023353738586756</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5912106295043857</v>
+        <v>-0.4780000834290776</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.38368445203154, 0.2012631930227684]</t>
+          <t>[-1.0440528138056173, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1399317859219789</v>
+        <v>0.09588264994104545</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1399317859219789</v>
+        <v>0.09588264994104545</v>
       </c>
       <c r="T7" t="n">
-        <v>58.6801384870619</v>
+        <v>69.80716225190571</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.93336124342133, 71.42691573070246]</t>
+          <t>[54.5703373718108, 85.04398713200061]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.254907620155791e-12</v>
+        <v>6.063594071292755e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>5.254907620155791e-12</v>
+        <v>6.063594071292755e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>2.445505505505562</v>
+        <v>1.964284284284329</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.8325125125125314</v>
+        <v>-0.3618418418418528</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.723523523523655</v>
+        <v>4.290410410410511</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.824692049851478e-08</v>
+        <v>7.9558035492866e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>7.824692049851478e-08</v>
+        <v>7.9558035492866e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>64.43200395754114</v>
+        <v>62.80320777866051</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.83597586279794, 90.02803205228435]</t>
+          <t>[38.176355493121406, 87.43006006419962]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.283109284994538e-06</v>
+        <v>5.834441962671022e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>7.283109284994538e-06</v>
+        <v>5.834441962671022e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.132105460753078</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.54721079636254, -0.7170001251436169]</t>
+          <t>[-1.6101055441821552, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.754470199344382e-06</v>
+        <v>1.358742622192821e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>1.754470199344382e-06</v>
+        <v>1.358742622192821e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2763874973456</v>
+        <v>68.94099619271289</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.457244729546346, 75.09553026514484]</t>
+          <t>[55.513598480450526, 82.36839390497525]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.586886178017721e-11</v>
+        <v>1.798561299892754e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.586886178017721e-11</v>
+        <v>1.798561299892754e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>4.682882882882996</v>
+        <v>4.859019019019129</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.9658258258259</v>
+        <v>3.101501501501573</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.399939939940092</v>
+        <v>6.616536536536685</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,73 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.47000000000023</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.492759263734051e-06</v>
+        <v>7.378257696688539e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>8.492759263734051e-06</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>7.378257696688539e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3359349050182568</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3359349050182568</v>
+      </c>
       <c r="L9" t="n">
-        <v>53.20052808997465</v>
+        <v>47.16825568737999</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.85526164236711, 74.5457945375822]</t>
+          <t>[21.10564074256405, 73.23087063219593]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8.608702901202747e-06</v>
+        <v>0.0006898461948472434</v>
       </c>
       <c r="O9" t="n">
-        <v>8.608702901202747e-06</v>
+        <v>0.0006898461948472434</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.572368695490387</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.0755266780473107, -1.0692107129334634]</t>
+          <t>[-2.6793162571156195, -1.597526594618234]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.141401821946886e-07</v>
+        <v>3.90576682107735e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>1.141401821946886e-07</v>
+        <v>3.90576682107735e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>65.02445433504795</v>
+        <v>62.61421707969022</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.47883568728666, 78.57007298280924]</t>
+          <t>[49.17460349456814, 76.0538306648123]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.479039113405634e-12</v>
+        <v>3.671063453225543e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.479039113405634e-12</v>
+        <v>3.671063453225543e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>5.873373373373429</v>
+        <v>7.487487487487488</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.993893893893932</v>
+        <v>5.593593593593596</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.752852852852927</v>
+        <v>9.381381381381381</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1273,73 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.47000000000023</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001529641777244128</v>
+        <v>0.0006019168706263844</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001529641777244128</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>0.0006019168706263844</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8108801066811639</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8108801066811639</v>
+      </c>
       <c r="L10" t="n">
-        <v>36.73989244016451</v>
+        <v>35.59368118719019</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[11.462667804595537, 62.01711707573348]</t>
+          <t>[14.509301126155655, 56.678061248224715]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.005343700031460896</v>
+        <v>0.001421337968732672</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005343700031460896</v>
+        <v>0.001421337968732672</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9685791164220783</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.6478423928739252, -0.28931583997023136]</t>
+          <t>[-2.591263610168158, -1.2327370572644631]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.006200667348232214</v>
+        <v>9.643522058677689e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>0.006200667348232214</v>
+        <v>9.643522058677689e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>56.22939433206879</v>
+        <v>55.81571493586053</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.799635172850145, 69.65915349128744]</t>
+          <t>[44.1313705389788, 67.50005933274227]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.149125818590619e-11</v>
+        <v>1.718403197514817e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>8.149125818590619e-11</v>
+        <v>1.718403197514817e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>3.617997997998032</v>
+        <v>6.694694694694693</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.080700700700711</v>
+        <v>4.316316316316314</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.155295295295353</v>
+        <v>9.073073073073072</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1363,73 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.47000000000023</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.402467621817841e-06</v>
+        <v>0.005278458173854417</v>
       </c>
       <c r="I11" t="n">
-        <v>5.402467621817841e-06</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.005278458173854417</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3179276758449368</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3179276758449368</v>
+      </c>
       <c r="L11" t="n">
-        <v>49.17201433855607</v>
+        <v>35.12705834910162</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[26.432662896052804, 71.91136578105933]</t>
+          <t>[7.348879767325407, 62.90523693087783]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>7.587650870721774e-05</v>
+        <v>0.0143566300992497</v>
       </c>
       <c r="O11" t="n">
-        <v>7.587650870721774e-05</v>
+        <v>0.0143566300992497</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.106947561625232</v>
+        <v>-1.018894914677771</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.6226844937460791, -0.5912106295043857]</t>
+          <t>[-1.7736318885131572, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.41677687601905e-05</v>
+        <v>0.009267905898218354</v>
       </c>
       <c r="S11" t="n">
-        <v>8.41677687601905e-05</v>
+        <v>0.009267905898218354</v>
       </c>
       <c r="T11" t="n">
-        <v>68.58871502967963</v>
+        <v>58.72717488280274</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[56.32210203862505, 80.85532802073422]</t>
+          <t>[44.16606484597425, 73.28828491963124]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>2.282791733421163e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>2.282791733421163e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>4.134854854854897</v>
+        <v>3.567567567567568</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.208388388388412</v>
+        <v>0.9249249249249245</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.061321321321381</v>
+        <v>6.210210210210212</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_6_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_6_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.325564629708122e-05</v>
+        <v>0.001903401163401597</v>
       </c>
       <c r="I2" t="n">
-        <v>3.325564629708122e-05</v>
+        <v>0.001903401163401597</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>36.88085379122087</v>
+        <v>38.62242362822863</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[20.36872753723, 53.39298004521174]</t>
+          <t>[13.800770136658258, 63.444077119799005]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.781287169541848e-05</v>
+        <v>0.003033138418866432</v>
       </c>
       <c r="O2" t="n">
-        <v>4.781287169541848e-05</v>
+        <v>0.003033138418866432</v>
       </c>
       <c r="P2" t="n">
-        <v>1.603816069400194</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0126054398958084, 2.19502669890458]</t>
+          <t>[0.81134224687304, 2.5220793875665803]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.936909117761232e-06</v>
+        <v>0.0002947526616319252</v>
       </c>
       <c r="S2" t="n">
-        <v>1.936909117761232e-06</v>
+        <v>0.0002947526616319252</v>
       </c>
       <c r="T2" t="n">
-        <v>61.22241615376245</v>
+        <v>65.18281261222677</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.573268746141224, 71.87156356138367]</t>
+          <t>[50.191612918981576, 80.17401230547196]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>2.797029274859142e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>2.797029274859142e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>19.22930930930976</v>
+        <v>18.84594594594637</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.79979979980019</v>
+        <v>15.3540540540544</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.65881881881932</v>
+        <v>22.33783783783833</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.51346122695406e-05</v>
+        <v>4.723851252164124e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.51346122695406e-05</v>
+        <v>4.723851252164124e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.20441970854078</v>
+        <v>54.61811728575672</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[22.403710615243455, 68.00512880183811]</t>
+          <t>[28.697620464194188, 80.53861410731925]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0002383024260534938</v>
+        <v>0.0001082652760497904</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002383024260534938</v>
+        <v>0.0001082652760497904</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 1.478026573760963]</t>
+          <t>[0.5597632555945777, 1.515763422452733]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0004908064229998121</v>
+        <v>7.175932279634978e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0004908064229998121</v>
+        <v>7.175932279634978e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>60.13486599302988</v>
+        <v>67.56854777954891</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.19213535403905, 72.0775966320207]</t>
+          <t>[53.92360485876267, 81.21349070033514]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.341771304121721e-13</v>
+        <v>5.646594303243546e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>3.341771304121721e-13</v>
+        <v>5.646594303243546e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>21.86558558558609</v>
+        <v>21.41351351351399</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.74622622622669</v>
+        <v>19.4621621621626</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.9849449449455</v>
+        <v>23.36486486486539</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.081925162990885e-06</v>
+        <v>2.041162110866246e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>4.081925162990885e-06</v>
+        <v>2.041162110866246e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.00818609867494</v>
+        <v>48.55458374475321</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[24.884215565250685, 67.1321566320992]</t>
+          <t>[23.398833055866795, 73.71033443363962]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.860163279220899e-05</v>
+        <v>0.0003303686274445106</v>
       </c>
       <c r="O4" t="n">
-        <v>6.860163279220899e-05</v>
+        <v>0.0003303686274445106</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5849211547224229</v>
+        <v>0.7358685494895019</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.11950002085726741, 1.0503422885875784]</t>
+          <t>[0.24528951649650121, 1.2264475824825025]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01492979866304922</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01492979866304922</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T4" t="n">
-        <v>54.40979872784671</v>
+        <v>66.51752208568263</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.370712456137795, 65.44888499955563]</t>
+          <t>[53.64838985591549, 79.38665431544976]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.534772722943671e-13</v>
+        <v>1.452171716209705e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>6.534772722943671e-13</v>
+        <v>1.452171716209705e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>23.41633633633688</v>
+        <v>22.64594594594645</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.50374374374424</v>
+        <v>20.6432432432437</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.32892892892952</v>
+        <v>24.64864864864919</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02776208035334948</v>
+        <v>0.002798994901173746</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02776208035334948</v>
+        <v>0.002798994901173746</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>26.68082237112299</v>
+        <v>34.95594637821984</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[4.760513507497663, 48.60113123474832]</t>
+          <t>[11.273104703550878, 58.638788052888806]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01817273898572802</v>
+        <v>0.004726606565558233</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01817273898572802</v>
+        <v>0.004726606565558233</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.06289474781961513</v>
+        <v>0.2578684660604242</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.2264475824825016, 1.1006580868432714]</t>
+          <t>[-0.5220264069028069, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9137892698473666</v>
+        <v>0.5088404400405204</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9137892698473666</v>
+        <v>0.5088404400405204</v>
       </c>
       <c r="T5" t="n">
-        <v>49.47285913775396</v>
+        <v>67.47161779870405</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[36.22916920186075, 62.716549073647165]</t>
+          <t>[54.355477187786335, 80.58775840962176]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.714974384725565e-09</v>
+        <v>1.691979889528739e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.714974384725565e-09</v>
+        <v>1.691979889528739e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2584584584584633</v>
+        <v>24.59729729729784</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.523023023023129</v>
+        <v>21.41351351351399</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.039939939940056</v>
+        <v>27.78108108108169</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002097029021311814</v>
+        <v>8.25738716314639e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002097029021311814</v>
+        <v>8.25738716314639e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>34.64304249637465</v>
+        <v>43.23690807526251</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.159202190730113, 54.126882802019196]</t>
+          <t>[21.967194998525542, 64.50662115199947]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0008349725165663902</v>
+        <v>0.0001737527830747432</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0008349725165663902</v>
+        <v>0.0001737527830747432</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3396316382259235</v>
+        <v>-0.5157369321208467</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, 0.3018947895341544]</t>
+          <t>[-1.0314738642416934, 0.0]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.291980167510081</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="S6" t="n">
-        <v>0.291980167510081</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="T6" t="n">
-        <v>48.11191783498744</v>
+        <v>45.99389822443264</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[37.34967002417239, 58.874165645802485]</t>
+          <t>[34.86240732714877, 57.12538912171651]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.251065917529104e-11</v>
+        <v>1.177116182304871e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.251065917529104e-11</v>
+        <v>1.177116182304871e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>1.395675675675704</v>
+        <v>2.105405405405453</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.240600600600632</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.031951951952042</v>
+        <v>4.210810810810903</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.673062797255767e-05</v>
+        <v>0.0007933124325202323</v>
       </c>
       <c r="I7" t="n">
-        <v>4.673062797255767e-05</v>
+        <v>0.0007933124325202323</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.52385171869542</v>
+        <v>37.88430013315254</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[24.31140409872492, 82.73629933866592]</t>
+          <t>[12.953086742644054, 62.81551352366102]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0006023353738586756</v>
+        <v>0.003718007133199253</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0006023353738586756</v>
+        <v>0.003718007133199253</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4780000834290776</v>
+        <v>-0.4151053356094625</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0440528138056173, 0.08805264694746207]</t>
+          <t>[-1.1069475616252324, 0.27673689040630745]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09588264994104545</v>
+        <v>0.2331817098504818</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09588264994104545</v>
+        <v>0.2331817098504818</v>
       </c>
       <c r="T7" t="n">
-        <v>69.80716225190571</v>
+        <v>69.8835629878795</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.5703373718108, 85.04398713200061]</t>
+          <t>[56.7925685914509, 82.9745573843081]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.063594071292755e-12</v>
+        <v>5.10702591327572e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>6.063594071292755e-12</v>
+        <v>5.10702591327572e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>1.964284284284329</v>
+        <v>1.694594594594633</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.3618418418418528</v>
+        <v>-1.129729729729753</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.290410410410511</v>
+        <v>4.51891891891902</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8200000000006</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.9558035492866e-08</v>
+        <v>0.0003122019512846741</v>
       </c>
       <c r="I8" t="n">
-        <v>7.9558035492866e-08</v>
+        <v>0.0003122019512846741</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.80320777866051</v>
+        <v>33.69714481034001</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.176355493121406, 87.43006006419962]</t>
+          <t>[12.1844128540843, 55.20987676659573]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.834441962671022e-06</v>
+        <v>0.002860918604018048</v>
       </c>
       <c r="O8" t="n">
-        <v>5.834441962671022e-06</v>
+        <v>0.002860918604018048</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.182421259008771</v>
+        <v>-0.6666843268879239</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.6101055441821552, -0.754736973835386]</t>
+          <t>[-1.2704739059562327, -0.06289474781961513]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.358742622192821e-06</v>
+        <v>0.03121705768794603</v>
       </c>
       <c r="S8" t="n">
-        <v>1.358742622192821e-06</v>
+        <v>0.03121705768794603</v>
       </c>
       <c r="T8" t="n">
-        <v>68.94099619271289</v>
+        <v>42.51231189375568</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[55.513598480450526, 82.36839390497525]</t>
+          <t>[31.489204512893885, 53.535419274617475]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.798561299892754e-13</v>
+        <v>7.524303402561827e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.798561299892754e-13</v>
+        <v>7.524303402561827e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>4.859019019019129</v>
+        <v>2.721621621621679</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.101501501501573</v>
+        <v>0.2567567567567588</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.616536536536685</v>
+        <v>5.1864864864866</v>
       </c>
     </row>
     <row r="9">
@@ -1183,73 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.378257696688539e-05</v>
+        <v>0.0001301709963117403</v>
       </c>
       <c r="I9" t="n">
-        <v>7.378257696688539e-05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3359349050182568</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3359349050182568</v>
-      </c>
+        <v>0.0001301709963117403</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.16825568737999</v>
+        <v>43.98095133979631</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[21.10564074256405, 73.23087063219593]</t>
+          <t>[21.556426410457192, 66.40547626913542]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0006898461948472434</v>
+        <v>0.0002722347209995757</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006898461948472434</v>
+        <v>0.0002722347209995757</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.138421425866927</v>
+        <v>-1.823947686768848</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -1.597526594618234]</t>
+          <t>[-2.427737265837157, -1.2201581077005397]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.90576682107735e-10</v>
+        <v>2.340670579581428e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>3.90576682107735e-10</v>
+        <v>2.340670579581428e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>62.61421707969022</v>
+        <v>66.43819090565579</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.17460349456814, 76.0538306648123]</t>
+          <t>[53.405724678850746, 79.47065713246083]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.671063453225543e-12</v>
+        <v>2.258193632087568e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.671063453225543e-12</v>
+        <v>2.258193632087568e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>7.487487487487488</v>
+        <v>6.577977977978005</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.593593593593596</v>
+        <v>4.400440440440457</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.381381381381381</v>
+        <v>8.755515515515553</v>
       </c>
     </row>
     <row r="10">
@@ -1273,73 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006019168706263844</v>
+        <v>0.002017222623286075</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006019168706263844</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8108801066811639</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8108801066811639</v>
-      </c>
+        <v>0.002017222623286075</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>35.59368118719019</v>
+        <v>31.55495310003883</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[14.509301126155655, 56.678061248224715]</t>
+          <t>[9.587775536639995, 53.522130663437665]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001421337968732672</v>
+        <v>0.005858961502243742</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001421337968732672</v>
+        <v>0.005858961502243742</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.912000333716311</v>
+        <v>-1.207579158136618</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.591263610168158, -1.2327370572644631]</t>
+          <t>[-1.9623161319720035, -0.4528421843012316]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.643522058677689e-07</v>
+        <v>0.002364514557146702</v>
       </c>
       <c r="S10" t="n">
-        <v>9.643522058677689e-07</v>
+        <v>0.002364514557146702</v>
       </c>
       <c r="T10" t="n">
-        <v>55.81571493586053</v>
+        <v>59.5226228252893</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.1313705389788, 67.50005933274227]</t>
+          <t>[47.79836970820469, 71.24687594237392]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.718403197514817e-12</v>
+        <v>2.575717417130363e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.718403197514817e-12</v>
+        <v>2.575717417130363e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>6.694694694694693</v>
+        <v>4.355075075075096</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.316316316316314</v>
+        <v>1.633153153153161</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.073073073073072</v>
+        <v>7.07699699699703</v>
       </c>
     </row>
     <row r="11">
@@ -1363,73 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>22.6600000000001</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005278458173854417</v>
+        <v>6.29087694048458e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005278458173854417</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3179276758449368</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3179276758449368</v>
-      </c>
+        <v>6.29087694048458e-07</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>35.12705834910162</v>
+        <v>51.49403694792765</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[7.348879767325407, 62.90523693087783]</t>
+          <t>[29.817095912889485, 73.17097798296581]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0143566300992497</v>
+        <v>1.878191738891033e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0143566300992497</v>
+        <v>1.878191738891033e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.018894914677771</v>
+        <v>-1.069210712933463</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.7736318885131572, -0.2641579408423853]</t>
+          <t>[-1.496894998106849, -0.6415264277600778]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.009267905898218354</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>0.009267905898218354</v>
+        <v>8.179350519110784e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>58.72717488280274</v>
+        <v>58.03776525426723</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.16606484597425, 73.28828491963124]</t>
+          <t>[46.52089733955332, 69.55463316898113]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.282791733421163e-10</v>
+        <v>3.257394354250209e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.282791733421163e-10</v>
+        <v>3.257394354250209e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>3.567567567567568</v>
+        <v>3.856056056056072</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9249249249249245</v>
+        <v>2.313633633633642</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.210210210210212</v>
+        <v>5.398478478478503</v>
       </c>
     </row>
   </sheetData>
